--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:41:19+00:00</t>
+    <t>2023-03-02T15:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:42:08+00:00</t>
+    <t>2023-03-03T07:02:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:02:32+00:00</t>
+    <t>2023-03-03T07:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:03+00:00</t>
+    <t>2023-03-03T07:18:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:54+00:00</t>
+    <t>2023-03-03T08:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:26:44+00:00</t>
+    <t>2023-03-03T08:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:27:27+00:00</t>
+    <t>2023-03-03T09:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -638,7 +638,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization-patient-transferred-to</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>

--- a/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-hiv-organization-patient-transferred-to.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T09:39:05+00:00</t>
+    <t>2023-03-03T10:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
